--- a/results/pvalue_SIDER_rare_Chem_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_Chem_AUPR+AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.033</t>
+          <t>-2.182</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.365</t>
+          <t>-12.587</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.054</t>
+          <t>-6.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.516</t>
+          <t>-4.752</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.588</t>
+          <t>12.452</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
